--- a/Outputs/resource_allocation_model3_vs_model4b.xlsx
+++ b/Outputs/resource_allocation_model3_vs_model4b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>33.8</v>
+        <v>61.14285714285715</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -507,16 +507,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>s300</t>
+          <t>s200</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>17.2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -535,11 +535,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>c</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -553,16 +553,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>s6</t>
+          <t>s300</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>i</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>57.5</v>
+        <v>40.75</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -581,11 +581,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>c</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>55.75</v>
+        <v>57.5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -599,16 +599,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>s9</t>
+          <t>s6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>i</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>57.42857142857143</v>
+        <v>55.75</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -627,11 +627,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>c</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -650,11 +650,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>i</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>32.4</v>
+        <v>67</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -664,30 +664,30 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>s9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>78.40000000000001</v>
+        <v>44.8</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Current</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -696,11 +696,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>c</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>31.16666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -719,11 +719,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>i</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>40.66666666666666</v>
+        <v>72</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -733,7 +733,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>51.55555555555556</v>
+        <v>52.2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28.8</v>
+        <v>36.8</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>46.14285714285715</v>
+        <v>57.4</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>62.71428571428572</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>44.25</v>
+        <v>31.14285714285714</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>58.42857142857143</v>
+        <v>73</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>40.66666666666666</v>
+        <v>45.5</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>45.77777777777778</v>
+        <v>57.45454545454545</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -953,32 +953,9 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E23" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>s7</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>11</v>
-      </c>
-      <c r="E24" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
